--- a/xlsx/婚姻_intext.xlsx
+++ b/xlsx/婚姻_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1023">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1018">
   <si>
     <t>婚姻</t>
   </si>
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%BC%8F%E5%A9%9A%E7%A6%AE</t>
   </si>
   <si>
-    <t>中式婚禮</t>
+    <t>中式婚礼</t>
   </si>
   <si>
     <t>政策_政策_社会政策_婚姻</t>
@@ -35,13 +35,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%9A%9B%E9%97%9C%E4%BF%82</t>
   </si>
   <si>
-    <t>人際關係</t>
+    <t>人际关系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%BA%E5%82%B3%E7%B3%BB%E8%AD%9C%E5%AD%B8</t>
   </si>
   <si>
-    <t>遺傳系譜學</t>
+    <t>遗传系谱学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E6%97%8F</t>
@@ -65,13 +65,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A0%82%E8%A6%AA</t>
   </si>
   <si>
-    <t>堂親</t>
+    <t>堂亲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%A8%E8%A6%AA</t>
   </si>
   <si>
-    <t>表親</t>
+    <t>表亲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A6%BB%E5%AD%90</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E4%BA%BA</t>
   </si>
   <si>
-    <t>愛人</t>
+    <t>爱人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E6%9C%8B%E5%8F%8B</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E4%BC%B4%E4%BE%B6</t>
   </si>
   <si>
-    <t>性伴侶</t>
+    <t>性伴侣</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%B1%E5%A9%9A</t>
@@ -173,7 +173,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AE%E9%85%8D%E5%81%B6%E5%88%B6</t>
   </si>
   <si>
-    <t>單配偶制</t>
+    <t>单配偶制</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Non-monogamy</t>
@@ -191,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E8%80%85_(%E6%84%9B%E6%83%85)</t>
   </si>
   <si>
-    <t>第三者 (愛情)</t>
+    <t>第三者 (爱情)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E6%94%BE%E5%BC%8F%E5%85%B3%E7%B3%BB</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E9%82%8A%E6%88%80</t>
   </si>
   <si>
-    <t>多邊戀</t>
+    <t>多边恋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A6%BE</t>
@@ -215,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%83%85%E5%A9%A6</t>
   </si>
   <si>
-    <t>情婦</t>
+    <t>情妇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%83%85%E5%A4%AB</t>
@@ -227,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A4%E9%9A%9B%E8%8A%B1</t>
   </si>
   <si>
-    <t>交際花</t>
+    <t>交际花</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9F%E6%83%85%E7%BA%BD%E5%B8%A6</t>
@@ -245,13 +245,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AE%E8%BA%AB%E7%AF%80</t>
   </si>
   <si>
-    <t>單身節</t>
+    <t>单身节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E6%83%85</t>
   </si>
   <si>
-    <t>愛情</t>
+    <t>爱情</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%AA%E6%BC%AB</t>
@@ -269,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E6%9C%83</t>
   </si>
   <si>
-    <t>約會</t>
+    <t>约会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%82%E5%81%B6</t>
@@ -287,13 +287,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%82%E5%A9%9A</t>
   </si>
   <si>
-    <t>訂婚</t>
+    <t>订婚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A9%9A%E7%A6%AE</t>
   </si>
   <si>
-    <t>婚禮</t>
+    <t>婚礼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%86%E6%89%8B</t>
@@ -305,19 +305,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%86%E5%B1%85%E5%8D%94%E8%AD%B0</t>
   </si>
   <si>
-    <t>分居協議</t>
+    <t>分居协议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%A2%E5%A9%9A</t>
   </si>
   <si>
-    <t>離婚</t>
+    <t>离婚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B0%A5%E5%AF%A1</t>
   </si>
   <si>
-    <t>鰥寡</t>
+    <t>鳏寡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%83%85%E7%BB%AA</t>
@@ -329,13 +329,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A6%AA%E5%92%8C</t>
   </si>
   <si>
-    <t>親和</t>
+    <t>亲和</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BE%9D%E9%99%84%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>依附理論</t>
+    <t>依附理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%B2%E5%AF%86%E5%85%B3%E7%B3%BB</t>
@@ -347,7 +347,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%A0%E8%B7%9D%E9%9B%A2%E6%88%80%E6%84%9B</t>
   </si>
   <si>
-    <t>遠距離戀愛</t>
+    <t>远距离恋爱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A6%92%E5%BF%8C</t>
@@ -365,7 +365,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B</t>
   </si>
   <si>
-    <t>愛</t>
+    <t>爱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%8B%89%E5%9B%BE%E5%BC%8F%E6%81%8B%E7%88%B1</t>
@@ -383,7 +383,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E7%9A%84%E6%80%A7</t>
   </si>
   <si>
-    <t>人類的性</t>
+    <t>人类的性</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Unconditional_love</t>
@@ -431,7 +431,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%BB%E6%83%85%E5%88%A5%E6%88%80</t>
   </si>
   <si>
-    <t>移情別戀</t>
+    <t>移情别恋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E9%81%87</t>
@@ -467,13 +467,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%99%90%E5%BE%85%E5%85%92%E7%AB%A5</t>
   </si>
   <si>
-    <t>虐待兒童</t>
+    <t>虐待儿童</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%90%E5%BE%85%E9%95%B7%E8%80%85</t>
   </si>
   <si>
-    <t>虐待長者</t>
+    <t>虐待长者</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Dating_abuse</t>
@@ -491,13 +491,13 @@
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E8%A6%AA%E8%BF%91%E9%97%9C%E4%BF%82</t>
   </si>
   <si>
-    <t>Template talk-親近關係</t>
+    <t>Template talk-亲近关系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A6%AA%E5%B1%AC%E9%97%9C%E4%BF%82</t>
   </si>
   <si>
-    <t>親屬關係</t>
+    <t>亲属关系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E5%8C%BA</t>
@@ -527,7 +527,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E5%BE%B7%E8%8F%AF%C2%B7%E9%9F%8B%E6%96%AF%E7%89%B9%E9%A6%AC%E5%85%8B</t>
   </si>
   <si>
-    <t>愛德華·韋斯特馬克</t>
+    <t>爱德华·韦斯特马克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%BE%B7%E8%92%99%C2%B7%E5%88%A9%E5%A5%87</t>
@@ -545,19 +545,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E7%94%A2</t>
   </si>
   <si>
-    <t>財產</t>
+    <t>财产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A8%B1%E8%AC%82</t>
   </si>
   <si>
-    <t>稱謂</t>
+    <t>称谓</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%9C%B0%E4%BD%8D</t>
   </si>
   <si>
-    <t>社會地位</t>
+    <t>社会地位</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Stephanie_Coontz</t>
@@ -569,7 +569,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E5%AF%8C</t>
   </si>
   <si>
-    <t>財富</t>
+    <t>财富</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86</t>
@@ -587,13 +587,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>社會</t>
+    <t>社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E</t>
   </si>
   <si>
-    <t>人類</t>
+    <t>人类</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A7%84%E8%8C%83%E5%8C%96</t>
@@ -605,13 +605,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A2%A8%E4%BF%97</t>
   </si>
   <si>
-    <t>風俗</t>
+    <t>风俗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E7%90%86</t>
   </si>
   <si>
-    <t>倫理</t>
+    <t>伦理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B</t>
@@ -629,19 +629,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會學</t>
+    <t>社会学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>經濟</t>
+    <t>经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%90%E5%A5%B3</t>
@@ -659,25 +659,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E5%8F%A4%E6%99%82%E4%BB%A3</t>
   </si>
   <si>
-    <t>上古時代</t>
+    <t>上古时代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8F%A4%E6%99%82%E4%BB%A3</t>
   </si>
   <si>
-    <t>中古時代</t>
+    <t>中古时代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%8B%95%E5%8A%9B</t>
   </si>
   <si>
-    <t>勞動力</t>
+    <t>劳动力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B9%BC%E6%89%BF</t>
   </si>
   <si>
-    <t>繼承</t>
+    <t>继承</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E5%A4%AB%E4%B8%80%E5%A6%BB%E5%88%B6</t>
@@ -695,13 +695,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%A9%9A%E5%88%B6</t>
   </si>
   <si>
-    <t>內婚制</t>
+    <t>内婚制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%91%E8%A6%AA%E5%A9%9A%E5%A7%BB</t>
   </si>
   <si>
-    <t>近親婚姻</t>
+    <t>近亲婚姻</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/incest_taboo</t>
@@ -713,7 +713,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%8F%E5%85%A7%E5%A9%9A</t>
   </si>
   <si>
-    <t>族內婚</t>
+    <t>族内婚</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Homogamy_(sociology)</t>
@@ -761,7 +761,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%B4%E8%B3%A4%E9%80%9A%E5%A9%9A</t>
   </si>
   <si>
-    <t>貴賤通婚</t>
+    <t>贵贱通婚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
@@ -785,7 +785,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A4%E6%8F%9B%E5%A9%9A</t>
   </si>
   <si>
-    <t>交換婚</t>
+    <t>交换婚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%A5%E5%A9%9A</t>
@@ -797,19 +797,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8E%A0%E5%A5%AA%E5%A9%9A</t>
   </si>
   <si>
-    <t>掠奪婚</t>
+    <t>掠夺婚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A5%E8%B4%85</t>
   </si>
   <si>
-    <t>入贅</t>
+    <t>入赘</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A6%BB%E5%95%8F%E5%A9%9A</t>
   </si>
   <si>
-    <t>妻問婚</t>
+    <t>妻问婚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%B0%E5%A9%9A</t>
@@ -827,9 +827,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%BB%E5%A9%9A</t>
   </si>
   <si>
-    <t>离婚</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%83%E5%AE%9C%E5%A9%9A%E5%A7%BB</t>
   </si>
   <si>
@@ -839,7 +836,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BC%B7%E9%80%BC%E5%A9%9A%E5%A7%BB</t>
   </si>
   <si>
-    <t>強逼婚姻</t>
+    <t>强逼婚姻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%85%E5%8A%9E%E5%A9%9A%E5%A7%BB</t>
@@ -869,13 +866,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%80%E6%84%9B%E7%B5%90%E5%A9%9A</t>
   </si>
   <si>
-    <t>戀愛結婚</t>
+    <t>恋爱结婚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%88%80%E6%84%9B</t>
   </si>
   <si>
-    <t>自由戀愛</t>
+    <t>自由恋爱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AA%92%E4%BA%BA</t>
@@ -887,13 +884,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B8%E8%A6%AA</t>
   </si>
   <si>
-    <t>相親</t>
+    <t>相亲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A7%BB%E8%A6%AA</t>
   </si>
   <si>
-    <t>姻親</t>
+    <t>姻亲</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/annulment</t>
@@ -905,7 +902,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93</t>
   </si>
   <si>
-    <t>菲律賓</t>
+    <t>菲律宾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E5%BB%B7</t>
@@ -917,7 +914,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B4%8D%E9%A4%8A%E8%B2%BB</t>
   </si>
   <si>
-    <t>贍養費</t>
+    <t>赡养费</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/no-fault_divorce</t>
@@ -959,7 +956,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E5%AA%A7</t>
   </si>
   <si>
-    <t>女媧</t>
+    <t>女娲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8F%E7%BE%B2</t>
@@ -977,13 +974,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BF%91%E8%A6%AA%E6%80%A7%E4%BA%A4</t>
   </si>
   <si>
-    <t>近親性交</t>
+    <t>近亲性交</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E6%A8%93%E5%A4%A2</t>
   </si>
   <si>
-    <t>紅樓夢</t>
+    <t>红楼梦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%BE%E5%AE%9D%E7%8E%89</t>
@@ -1001,7 +998,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E6%B0%91%E6%B3%95</t>
   </si>
   <si>
-    <t>中華民國民法</t>
+    <t>中华民国民法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%95%E4%BD%8D_(%E7%A4%BE%E4%BC%9A%E7%BB%84%E7%BB%87)</t>
@@ -1013,7 +1010,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E6%BB%8B%E7%97%85</t>
   </si>
   <si>
-    <t>愛滋病</t>
+    <t>爱滋病</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%AE%9A%E7%BB%93%E5%A9%9A%E5%B9%B4%E9%BE%84</t>
@@ -1055,7 +1052,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%AD%97%E6%96%87%E5%8C%96%E5%9C%88</t>
   </si>
   <si>
-    <t>漢字文化圈</t>
+    <t>汉字文化圈</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
@@ -1073,27 +1070,21 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E5%85%A7%E6%94%BF%E9%83%A8</t>
   </si>
   <si>
-    <t>中華民國內政部</t>
+    <t>中华民国内政部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A9%9A%E7%A4%BC</t>
   </si>
   <si>
-    <t>婚礼</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%90%E5%A9%9A%E6%88%92%E6%8C%87</t>
   </si>
   <si>
-    <t>結婚戒指</t>
+    <t>结婚戒指</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E6%83%85</t>
   </si>
   <si>
-    <t>爱情</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8D%E5%A9%9A</t>
   </si>
   <si>
@@ -1103,7 +1094,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%BA%8B%E7%B5%90%E5%90%88</t>
   </si>
   <si>
-    <t>民事結合</t>
+    <t>民事结合</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9F%E9%99%90%E5%A9%9A%E5%A7%BB</t>
@@ -1115,13 +1106,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A9%9A%E5%89%8D%E5%8D%94%E8%AD%B0%E6%9B%B8</t>
   </si>
   <si>
-    <t>婚前協議書</t>
+    <t>婚前协议书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%81%87%E7%B5%90%E5%A9%9A</t>
   </si>
   <si>
-    <t>假結婚</t>
+    <t>假结婚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%A9%9A%E5%A7%BB%E6%97%A5</t>
@@ -1133,19 +1124,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E6%80%A7%E7%B6%B1%E8%A6%81</t>
   </si>
   <si>
-    <t>人類性綱要</t>
+    <t>人类性纲要</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>生物學</t>
+    <t>生物学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%88%A5</t>
   </si>
   <si>
-    <t>性別</t>
+    <t>性别</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E6%80%A7</t>
@@ -1163,7 +1154,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%99%E6%80%A7%E4%BA%BA</t>
   </si>
   <si>
-    <t>雙性人</t>
+    <t>双性人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%83%E8%B5%B7</t>
@@ -1217,7 +1208,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%96%9A%E8%B5%B7</t>
   </si>
   <si>
-    <t>性喚起</t>
+    <t>性唤起</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E9%AB%98%E6%BD%AE</t>
@@ -1235,19 +1226,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%99%B0%E9%81%93%E5%88%86%E6%B3%8C%E6%B6%B2</t>
   </si>
   <si>
-    <t>陰道分泌液</t>
+    <t>阴道分泌液</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>心理學</t>
+    <t>心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BA%AB%E4%BB%BD_(%E7%A4%BE%E6%9C%83%E5%BF%83%E7%90%86%E5%AD%B8)</t>
   </si>
   <si>
-    <t>身份 (社會心理學)</t>
+    <t>身份 (社会心理学)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E8%BA%AB%E4%BB%BD</t>
@@ -1265,25 +1256,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%88%A5%E8%AA%8D%E5%90%8C</t>
   </si>
   <si>
-    <t>性別認同</t>
+    <t>性别认同</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%88%A5%E4%BA%8C%E5%85%83</t>
   </si>
   <si>
-    <t>性別二元</t>
+    <t>性别二元</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%88%A5%E6%B0%A3%E8%B3%AA</t>
   </si>
   <si>
-    <t>性別氣質</t>
+    <t>性别气质</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%88%A5%E8%A7%92%E8%89%B2</t>
   </si>
   <si>
-    <t>性別角色</t>
+    <t>性别角色</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%81%A5%E5%BA%B7</t>
@@ -1301,7 +1292,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>性學</t>
+    <t>性学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E6%95%99%E8%82%B2</t>
@@ -1319,7 +1310,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BA%AB%E9%AB%94%E6%84%8F%E8%B1%A1</t>
   </si>
   <si>
-    <t>身體意象</t>
+    <t>身体意象</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E8%82%B2%E6%8E%A7%E5%88%B6</t>
@@ -1343,7 +1334,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%85%A8%E6%80%A7%E8%A1%8C%E7%82%BA</t>
   </si>
   <si>
-    <t>安全性行為</t>
+    <t>安全性行为</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%AE%96%E5%81%A5%E5%BA%B7</t>
@@ -1355,19 +1346,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%AE%96%E9%86%AB%E5%AD%B8</t>
   </si>
   <si>
-    <t>生殖醫學</t>
+    <t>生殖医学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A9%A6%E7%94%A2%E7%A7%91</t>
   </si>
   <si>
-    <t>婦產科</t>
+    <t>妇产科</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B7%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>男科學</t>
+    <t>男科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%8C%E5%B0%BF%E5%A4%96%E7%A7%91</t>
@@ -1379,7 +1370,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E9%86%AB%E5%AD%B8</t>
   </si>
   <si>
-    <t>性醫學</t>
+    <t>性医学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%8A%9F%E8%83%BD%E9%9A%9C%E7%A2%8D</t>
@@ -1397,7 +1388,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E6%85%BE%E4%BA%A2%E9%80%B2</t>
   </si>
   <si>
-    <t>性慾亢進</t>
+    <t>性慾亢进</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%83%E8%B5%B7%E5%8A%9F%E8%83%BD%E9%9A%9C%E7%A2%8D</t>
@@ -1427,13 +1418,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%BC%B7%E8%BF%AB%E7%97%87</t>
   </si>
   <si>
-    <t>性強迫症</t>
+    <t>性强迫症</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A2%AB%E6%84%9B%E5%A6%84%E6%83%B3%E7%97%87</t>
   </si>
   <si>
-    <t>被愛妄想症</t>
+    <t>被爱妄想症</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E7%8A%AF%E7%BD%AA</t>
@@ -1445,7 +1436,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%80%E4%BD%8E%E5%90%88%E6%B3%95%E6%80%A7%E4%BA%A4%E5%B9%B4%E9%BD%A1</t>
   </si>
   <si>
-    <t>最低合法性交年齡</t>
+    <t>最低合法性交年龄</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%A0%E6%92%AD%E8%89%BE%E6%BB%8B%E7%97%85%E7%BD%AA</t>
@@ -1469,7 +1460,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E9%A8%B7%E6%93%BE</t>
   </si>
   <si>
-    <t>性騷擾</t>
+    <t>性骚扰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E8%99%90%E5%BE%85</t>
@@ -1547,13 +1538,10 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A6%AA%E5%AF%86%E9%97%9C%E4%BF%82</t>
   </si>
   <si>
-    <t>親密關係</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%A7%92%E9%97%9C%E4%BF%82</t>
   </si>
   <si>
-    <t>三角關係</t>
+    <t>三角关系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%A7%92%E5%AE%B6%E5%BA%AD</t>
@@ -1565,19 +1553,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%80%AB%E7%90%86</t>
   </si>
   <si>
-    <t>性倫理</t>
+    <t>性伦理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E6%B4%BE%E5%B0%8D</t>
   </si>
   <si>
-    <t>性派對</t>
+    <t>性派对</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%BF%E6%83%85</t>
   </si>
   <si>
-    <t>調情</t>
+    <t>调情</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E5%A4%9C%E6%83%85</t>
@@ -1589,13 +1577,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BF%AB%E4%BA%A4</t>
   </si>
   <si>
-    <t>濫交</t>
+    <t>滥交</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%81%E6%85%BE%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>禁慾主義</t>
+    <t>禁慾主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E7%A6%81%E6%85%BE</t>
@@ -1607,19 +1595,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E5%8A%83%E7%94%9F%E8%82%B2</t>
   </si>
   <si>
-    <t>計劃生育</t>
+    <t>计划生育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A9%9A%E5%89%8D%E6%80%A7%E8%A1%8C%E7%82%BA</t>
   </si>
   <si>
-    <t>婚前性行為</t>
+    <t>婚前性行为</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8F%B4%E5%8A%A9%E4%BA%A4%E9%9A%9B</t>
   </si>
   <si>
-    <t>援助交際</t>
+    <t>援助交际</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Sexual_capital</t>
@@ -1643,7 +1631,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E6%B4%BB%E5%8B%95</t>
   </si>
   <si>
-    <t>性活動</t>
+    <t>性活动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E6%85%B0</t>
@@ -1667,7 +1655,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E6%88%B2</t>
   </si>
   <si>
-    <t>前戲</t>
+    <t>前戏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8E%E6%88%8F</t>
@@ -1703,7 +1691,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8F%92%E5%85%A5%E5%BC%8F%E6%80%A7%E8%A1%8C%E7%82%BA</t>
   </si>
   <si>
-    <t>插入式性行為</t>
+    <t>插入式性行为</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8C%87%E4%BA%A4</t>
@@ -1745,13 +1733,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%90%E9%99%B0</t>
   </si>
   <si>
-    <t>舐陰</t>
+    <t>舐阴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%92%82%E9%99%BD</t>
   </si>
   <si>
-    <t>咂陽</t>
+    <t>咂阳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/69%E5%BC%8F</t>
@@ -1775,7 +1763,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%8F%92%E5%85%A5%E5%BC%8F%E6%80%A7%E8%A1%8C%E7%82%BA</t>
   </si>
   <si>
-    <t>非插入式性行為</t>
+    <t>非插入式性行为</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%B3%E4%BA%A4</t>
@@ -1793,13 +1781,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E9%99%B0%E6%91%A9%E6%93%A6</t>
   </si>
   <si>
-    <t>女陰摩擦</t>
+    <t>女阴摩擦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%B0%E8%8E%96%E6%91%A9%E6%93%A6</t>
   </si>
   <si>
-    <t>陰莖摩擦</t>
+    <t>阴茎摩擦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9F%E5%AE%98%E6%8C%89%E6%91%A9</t>
@@ -1811,13 +1799,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B9%B3%E9%A0%AD%E6%84%9B%E6%92%AB</t>
   </si>
   <si>
-    <t>乳頭愛撫</t>
+    <t>乳头爱抚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%9C%9F%E6%80%A7%E8%A1%8C%E7%82%BA</t>
   </si>
   <si>
-    <t>經期性行為</t>
+    <t>经期性行为</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AB%E5%BA%8A</t>
@@ -1829,13 +1817,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E6%92%AB</t>
   </si>
   <si>
-    <t>愛撫</t>
+    <t>爱抚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8B%E6%B5%81%E8%A9%B1</t>
   </si>
   <si>
-    <t>下流話</t>
+    <t>下流话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E4%BD%93%E4%BD%8D</t>
@@ -1847,13 +1835,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A1%8F%E5%B0%84</t>
   </si>
   <si>
-    <t>顏射</t>
+    <t>颜射</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%80%E7%89%A9</t>
   </si>
   <si>
-    <t>戀物</t>
+    <t>恋物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/BDSM</t>
@@ -1865,7 +1853,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E7%B5%B1%E6%80%A7%E6%84%9B</t>
   </si>
   <si>
-    <t>傳統性愛</t>
+    <t>传统性爱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%AD%E4%BF%83%E6%80%A7%E7%88%B1</t>
@@ -1883,25 +1871,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E5%A5%97%E6%80%A7%E4%BA%A4</t>
   </si>
   <si>
-    <t>無套性交</t>
+    <t>无套性交</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9B%E6%93%AC%E6%80%A7%E4%BA%A4</t>
   </si>
   <si>
-    <t>虛擬性交</t>
+    <t>虚拟性交</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E7%B5%A1%E6%80%A7%E4%BA%A4</t>
   </si>
   <si>
-    <t>網絡性交</t>
+    <t>网络性交</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%A9%B1%E6%80%A7%E4%BA%A4</t>
   </si>
   <si>
-    <t>電話性交</t>
+    <t>电话性交</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E9%AB%98%E6%BD%AE%E6%8E%A7%E5%88%B6</t>
@@ -1925,19 +1913,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%81%8F%E9%9B%A2</t>
   </si>
   <si>
-    <t>性偏離</t>
+    <t>性偏离</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A4%E6%8F%9B%E9%85%8D%E5%81%B6</t>
   </si>
   <si>
-    <t>交換配偶</t>
+    <t>交换配偶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E7%94%A2%E6%A5%AD</t>
   </si>
   <si>
-    <t>性產業</t>
+    <t>性产业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%83%85%E8%89%B2</t>
@@ -1955,7 +1943,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E6%83%85%E6%BC%94%E5%93%A1</t>
   </si>
   <si>
-    <t>色情演員</t>
+    <t>色情演员</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%91%E7%BB%9C%E8%89%B2%E6%83%85</t>
@@ -1979,7 +1967,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E6%84%9B%E5%A8%83%E5%A8%83</t>
   </si>
   <si>
-    <t>性愛娃娃</t>
+    <t>性爱娃娃</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%95%86%E5%BA%97</t>
@@ -1991,13 +1979,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E6%97%85%E9%81%8A</t>
   </si>
   <si>
-    <t>性旅遊</t>
+    <t>性旅游</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%92%E7%AB%A5%E8%89%B2%E6%83%85%E6%97%85%E9%81%8A</t>
   </si>
   <si>
-    <t>兒童色情旅遊</t>
+    <t>儿童色情旅游</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%B7%A5%E4%BD%9C%E8%80%85</t>
@@ -2027,13 +2015,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E6%83%85%E6%9B%B8%E5%88%8A</t>
   </si>
   <si>
-    <t>色情書刊</t>
+    <t>色情书刊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%90%E4%BA%BA%E9%9B%9C%E8%AA%8C</t>
   </si>
   <si>
-    <t>成人雜誌</t>
+    <t>成人杂志</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%90%E4%BA%BA%E6%96%87%E5%AD%A6</t>
@@ -2045,7 +2033,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%83%85%E8%89%B2%E6%96%87%E5%AD%B8</t>
   </si>
   <si>
-    <t>情色文學</t>
+    <t>情色文学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E6%83%85%E5%B0%8F%E8%AF%B4</t>
@@ -2063,49 +2051,49 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%90%E4%BA%BA%E5%8B%95%E7%95%AB</t>
   </si>
   <si>
-    <t>成人動畫</t>
+    <t>成人动画</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%90%E4%BA%BA%E9%9B%BB%E5%BD%B1</t>
   </si>
   <si>
-    <t>成人電影</t>
+    <t>成人电影</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E6%83%85%E9%9B%BB%E5%BD%B1</t>
   </si>
   <si>
-    <t>色情電影</t>
+    <t>色情电影</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%90%E4%BA%BA%E9%81%8A%E6%88%B2</t>
   </si>
   <si>
-    <t>成人遊戲</t>
+    <t>成人游戏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%90%E4%BA%BA%E9%9B%BB%E5%AD%90%E9%81%8A%E6%88%B2</t>
   </si>
   <si>
-    <t>成人電子遊戲</t>
+    <t>成人电子游戏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%A5%E5%AE%AE%E5%9C%96</t>
   </si>
   <si>
-    <t>春宮圖</t>
+    <t>春宫图</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E7%87%88%E5%8D%80</t>
   </si>
   <si>
-    <t>紅燈區</t>
+    <t>红灯区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%84%AB%E8%A1%A3%E8%88%9E%E4%BF%B1%E6%A8%82%E9%83%A8</t>
   </si>
   <si>
-    <t>脫衣舞俱樂部</t>
+    <t>脱衣舞俱乐部</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Webcam_model</t>
@@ -2201,7 +2189,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E7%AD%89%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>平等主義</t>
+    <t>平等主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8A%E4%B8%A5</t>
@@ -2231,7 +2219,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E5%91%BD%E6%AC%8A</t>
   </si>
   <si>
-    <t>生命權</t>
+    <t>生命权</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/security_of_person</t>
@@ -2261,7 +2249,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%80%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>個人</t>
+    <t>个人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E4%B9%8B%E5%89%8D%E4%BA%BA%E4%BA%BA%E5%B9%B3%E7%AD%89</t>
@@ -2327,19 +2315,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%87%E8%AD%B7%E6%AC%8A</t>
   </si>
   <si>
-    <t>庇護權</t>
+    <t>庇护权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%B1%8D</t>
   </si>
   <si>
-    <t>國籍</t>
+    <t>国籍</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%90%E5%A9%9A</t>
   </si>
   <si>
-    <t>結婚</t>
+    <t>结婚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Right_to_property</t>
@@ -2369,7 +2357,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%80%E8%AB%96%E8%87%AA%E7%94%B1</t>
   </si>
   <si>
-    <t>言論自由</t>
+    <t>言论自由</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E6%81%AF%E8%87%AA%E7%94%B1</t>
@@ -2381,19 +2369,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%86%E6%9C%83%E8%87%AA%E7%94%B1</t>
   </si>
   <si>
-    <t>集會自由</t>
+    <t>集会自由</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%90%E7%A4%BE%E8%87%AA%E7%94%B1</t>
   </si>
   <si>
-    <t>結社自由</t>
+    <t>结社自由</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E7%9C%BE%E5%8F%83%E8%88%87</t>
   </si>
   <si>
-    <t>公眾參與</t>
+    <t>公众参与</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E8%A1%8C%E6%94%BF%E5%AD%A6</t>
@@ -2405,7 +2393,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%81%8D%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>普遍選舉</t>
+    <t>普遍选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E3%80%81%E7%A4%BE%E4%BC%9A%E5%8F%8A%E6%96%87%E5%8C%96%E6%9D%83%E5%88%A9%E5%9B%BD%E9%99%85%E5%85%AC%E7%BA%A6</t>
@@ -2435,7 +2423,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A0%B1%E9%85%AC</t>
   </si>
   <si>
-    <t>報酬</t>
+    <t>报酬</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%BC%9A</t>
@@ -2447,13 +2435,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A4%98%E6%9A%87</t>
   </si>
   <si>
-    <t>餘暇</t>
+    <t>馀暇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%80%E4%BD%8E%E7%94%9F%E6%B4%BB%E4%BF%9D%E9%9A%9C%E6%AC%8A</t>
   </si>
   <si>
-    <t>最低生活保障權</t>
+    <t>最低生活保障权</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Mothers%27_rights</t>
@@ -2477,7 +2465,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%AC%8A%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>人權教育</t>
+    <t>人权教育</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Freedom_of_education</t>
@@ -2501,7 +2489,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E8%B2%AC%E4%BB%BB</t>
   </si>
   <si>
-    <t>社會責任</t>
+    <t>社会责任</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD</t>
@@ -2513,27 +2501,24 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E8%BC%A9</t>
   </si>
   <si>
-    <t>平輩</t>
+    <t>平辈</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E8%BC%A9</t>
   </si>
   <si>
-    <t>長輩</t>
+    <t>长辈</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%80%E7%B7%A3</t>
   </si>
   <si>
-    <t>血緣</t>
+    <t>血缘</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A0%82%E4%BA%B2</t>
   </si>
   <si>
-    <t>堂亲</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%80%E4%BA%B2</t>
   </si>
   <si>
@@ -2549,13 +2534,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A6%AA%E5%B1%AC</t>
   </si>
   <si>
-    <t>親屬</t>
+    <t>亲属</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%92%E5%AA%B3</t>
   </si>
   <si>
-    <t>兒媳</t>
+    <t>儿媳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AB%E5%AE%B6</t>
@@ -2591,7 +2576,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A9%BF%E9%A4%8A%E5%AD%90</t>
   </si>
   <si>
-    <t>婿養子</t>
+    <t>婿养子</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B2%B3%E6%AF%8D</t>
@@ -2615,7 +2600,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B9%BC%E8%A6%AA</t>
   </si>
   <si>
-    <t>繼親</t>
+    <t>继亲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E6%88%9A</t>
@@ -2633,7 +2618,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%BD%E6%89%8B</t>
   </si>
   <si>
-    <t>牽手</t>
+    <t>牵手</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A7%93%E5%90%8D</t>
@@ -2645,7 +2630,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%A7%93</t>
   </si>
   <si>
-    <t>漢姓</t>
+    <t>汉姓</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8D%E5%AD%97</t>
@@ -2669,19 +2654,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%88%B6%E6%AC%8A</t>
   </si>
   <si>
-    <t>父權</t>
+    <t>父权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B6%E8%A6%AA%E7%AF%80</t>
   </si>
   <si>
-    <t>父親節</t>
+    <t>父亲节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A6%AA%E6%9C%AC</t>
   </si>
   <si>
-    <t>親本</t>
+    <t>亲本</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%8D%E4%BA%B2%E8%8A%82</t>
@@ -2693,7 +2678,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%8D%E6%84%9B</t>
   </si>
   <si>
-    <t>母愛</t>
+    <t>母爱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%B3%E7%90%83%E5%A6%88%E5%A6%88</t>
@@ -2717,13 +2702,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A3%E8%AD%B7%E4%BA%BA</t>
   </si>
   <si>
-    <t>監護人</t>
+    <t>监护人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A6%AA%E5%AD%90%E9%97%9C%E4%BF%82</t>
   </si>
   <si>
-    <t>親子關係</t>
+    <t>亲子关系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A3%E4%BD%8D%E7%88%B6%E6%AF%8D</t>
@@ -2735,7 +2720,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AA%BD%E5%AF%B6</t>
   </si>
   <si>
-    <t>媽寶</t>
+    <t>妈宝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%BC%E7%88%B8</t>
@@ -2747,7 +2732,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AA%A1%E5%AD%90%E6%9B%B8</t>
   </si>
   <si>
-    <t>誡子書</t>
+    <t>诫子书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9A%90%E6%80%A7%E5%8D%95%E4%BA%B2</t>
@@ -2759,7 +2744,7 @@
     <t>https://zh.wikipedia.org/wiki/LGBT%E6%94%B6%E9%A4%8A</t>
   </si>
   <si>
-    <t>LGBT收養</t>
+    <t>LGBT收养</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%B2%E5%AD%90%E9%89%B4%E5%AE%9A</t>
@@ -2777,25 +2762,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B9%BC%E5%B9%B4%E5%8E%9F%E5%89%87</t>
   </si>
   <si>
-    <t>幼年原則</t>
+    <t>幼年原则</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%B6%E9%A4%8A</t>
   </si>
   <si>
-    <t>收養</t>
+    <t>收养</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BA%96%E6%AD%A3</t>
   </si>
   <si>
-    <t>準正</t>
+    <t>准正</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%8D%E9%A0%98_(%E8%A6%AA%E5%AD%90%E6%B3%95)</t>
   </si>
   <si>
-    <t>認領 (親子法)</t>
+    <t>认领 (亲子法)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%87%E7%BB%A7</t>
@@ -2825,7 +2810,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%92%E5%AD%90</t>
   </si>
   <si>
-    <t>兒子</t>
+    <t>儿子</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%94%E7%88%B6</t>
@@ -2843,7 +2828,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AB%A1%E9%95%B7%E5%AD%90</t>
   </si>
   <si>
-    <t>嫡長子</t>
+    <t>嫡长子</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%9F</t>
@@ -2855,13 +2840,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%88%B6%E8%A6%AA</t>
   </si>
   <si>
-    <t>父親</t>
+    <t>父亲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%AD%90</t>
   </si>
   <si>
-    <t>猶子</t>
+    <t>犹子</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%85%E7%88%B6</t>
@@ -2909,7 +2894,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B9%BC%E5%AE%A4</t>
   </si>
   <si>
-    <t>繼室</t>
+    <t>继室</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E5%A6%BB</t>
@@ -2921,7 +2906,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%83%B5%E8%B3%BC%E6%96%B0%E5%A8%98</t>
   </si>
   <si>
-    <t>郵購新娘</t>
+    <t>邮购新娘</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AB%A1%E5%BA%B6</t>
@@ -2939,7 +2924,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%AE%E5%A6%BB</t>
   </si>
   <si>
-    <t>髮妻</t>
+    <t>发妻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%AB%E6%88%BF</t>
@@ -2957,7 +2942,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E5%85%92</t>
   </si>
   <si>
-    <t>女兒</t>
+    <t>女儿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A6%B9</t>
@@ -2987,13 +2972,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AC%B8</t>
   </si>
   <si>
-    <t>嬸</t>
+    <t>婶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%8D%E8%A6%AA</t>
   </si>
   <si>
-    <t>母親</t>
+    <t>母亲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A7%AA</t>
@@ -3035,7 +3020,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E8%AA%9E%E8%A6%AA%E5%B1%AC%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>漢語親屬系統</t>
+    <t>汉语亲属系统</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E7%B6%9A%E6%9F%84</t>
@@ -3053,7 +3038,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
@@ -3077,13 +3062,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
   </si>
   <si>
-    <t>瑞士歷史辭典</t>
+    <t>瑞士历史辞典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -7398,7 +7383,7 @@
         <v>269</v>
       </c>
       <c r="F137" t="s">
-        <v>270</v>
+        <v>98</v>
       </c>
       <c r="G137" t="n">
         <v>2</v>
@@ -7424,10 +7409,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>270</v>
+      </c>
+      <c r="F138" t="s">
         <v>271</v>
-      </c>
-      <c r="F138" t="s">
-        <v>272</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -7453,10 +7438,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>272</v>
+      </c>
+      <c r="F139" t="s">
         <v>273</v>
-      </c>
-      <c r="F139" t="s">
-        <v>274</v>
       </c>
       <c r="G139" t="n">
         <v>5</v>
@@ -7482,10 +7467,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>274</v>
+      </c>
+      <c r="F140" t="s">
         <v>275</v>
-      </c>
-      <c r="F140" t="s">
-        <v>276</v>
       </c>
       <c r="G140" t="n">
         <v>6</v>
@@ -7511,10 +7496,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>276</v>
+      </c>
+      <c r="F141" t="s">
         <v>277</v>
-      </c>
-      <c r="F141" t="s">
-        <v>278</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -7540,10 +7525,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>278</v>
+      </c>
+      <c r="F142" t="s">
         <v>279</v>
-      </c>
-      <c r="F142" t="s">
-        <v>280</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -7569,10 +7554,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>280</v>
+      </c>
+      <c r="F143" t="s">
         <v>281</v>
-      </c>
-      <c r="F143" t="s">
-        <v>282</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -7598,10 +7583,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>282</v>
+      </c>
+      <c r="F144" t="s">
         <v>283</v>
-      </c>
-      <c r="F144" t="s">
-        <v>284</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -7627,10 +7612,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>284</v>
+      </c>
+      <c r="F145" t="s">
         <v>285</v>
-      </c>
-      <c r="F145" t="s">
-        <v>286</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -7656,10 +7641,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>286</v>
+      </c>
+      <c r="F146" t="s">
         <v>287</v>
-      </c>
-      <c r="F146" t="s">
-        <v>288</v>
       </c>
       <c r="G146" t="n">
         <v>2</v>
@@ -7685,10 +7670,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>274</v>
+      </c>
+      <c r="F147" t="s">
         <v>275</v>
-      </c>
-      <c r="F147" t="s">
-        <v>276</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -7714,10 +7699,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>288</v>
+      </c>
+      <c r="F148" t="s">
         <v>289</v>
-      </c>
-      <c r="F148" t="s">
-        <v>290</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -7743,10 +7728,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>290</v>
+      </c>
+      <c r="F149" t="s">
         <v>291</v>
-      </c>
-      <c r="F149" t="s">
-        <v>292</v>
       </c>
       <c r="G149" t="n">
         <v>2</v>
@@ -7772,10 +7757,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>292</v>
+      </c>
+      <c r="F150" t="s">
         <v>293</v>
-      </c>
-      <c r="F150" t="s">
-        <v>294</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -7801,10 +7786,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>294</v>
+      </c>
+      <c r="F151" t="s">
         <v>295</v>
-      </c>
-      <c r="F151" t="s">
-        <v>296</v>
       </c>
       <c r="G151" t="n">
         <v>3</v>
@@ -7830,10 +7815,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>296</v>
+      </c>
+      <c r="F152" t="s">
         <v>297</v>
-      </c>
-      <c r="F152" t="s">
-        <v>298</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -7859,10 +7844,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>298</v>
+      </c>
+      <c r="F153" t="s">
         <v>299</v>
-      </c>
-      <c r="F153" t="s">
-        <v>300</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -7888,10 +7873,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>300</v>
+      </c>
+      <c r="F154" t="s">
         <v>301</v>
-      </c>
-      <c r="F154" t="s">
-        <v>302</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -7917,10 +7902,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>302</v>
+      </c>
+      <c r="F155" t="s">
         <v>303</v>
-      </c>
-      <c r="F155" t="s">
-        <v>304</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -7946,10 +7931,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>304</v>
+      </c>
+      <c r="F156" t="s">
         <v>305</v>
-      </c>
-      <c r="F156" t="s">
-        <v>306</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -7975,10 +7960,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>306</v>
+      </c>
+      <c r="F157" t="s">
         <v>307</v>
-      </c>
-      <c r="F157" t="s">
-        <v>308</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -8004,10 +7989,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>308</v>
+      </c>
+      <c r="F158" t="s">
         <v>309</v>
-      </c>
-      <c r="F158" t="s">
-        <v>310</v>
       </c>
       <c r="G158" t="n">
         <v>2</v>
@@ -8033,10 +8018,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>310</v>
+      </c>
+      <c r="F159" t="s">
         <v>311</v>
-      </c>
-      <c r="F159" t="s">
-        <v>312</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -8091,10 +8076,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>312</v>
+      </c>
+      <c r="F161" t="s">
         <v>313</v>
-      </c>
-      <c r="F161" t="s">
-        <v>314</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -8120,10 +8105,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>314</v>
+      </c>
+      <c r="F162" t="s">
         <v>315</v>
-      </c>
-      <c r="F162" t="s">
-        <v>316</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -8149,10 +8134,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>316</v>
+      </c>
+      <c r="F163" t="s">
         <v>317</v>
-      </c>
-      <c r="F163" t="s">
-        <v>318</v>
       </c>
       <c r="G163" t="n">
         <v>2</v>
@@ -8178,10 +8163,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>318</v>
+      </c>
+      <c r="F164" t="s">
         <v>319</v>
-      </c>
-      <c r="F164" t="s">
-        <v>320</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -8207,10 +8192,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>320</v>
+      </c>
+      <c r="F165" t="s">
         <v>321</v>
-      </c>
-      <c r="F165" t="s">
-        <v>322</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -8236,10 +8221,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>322</v>
+      </c>
+      <c r="F166" t="s">
         <v>323</v>
-      </c>
-      <c r="F166" t="s">
-        <v>324</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -8265,10 +8250,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>324</v>
+      </c>
+      <c r="F167" t="s">
         <v>325</v>
-      </c>
-      <c r="F167" t="s">
-        <v>326</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -8294,10 +8279,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>326</v>
+      </c>
+      <c r="F168" t="s">
         <v>327</v>
-      </c>
-      <c r="F168" t="s">
-        <v>328</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -8323,10 +8308,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>328</v>
+      </c>
+      <c r="F169" t="s">
         <v>329</v>
-      </c>
-      <c r="F169" t="s">
-        <v>330</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -8352,10 +8337,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>330</v>
+      </c>
+      <c r="F170" t="s">
         <v>331</v>
-      </c>
-      <c r="F170" t="s">
-        <v>332</v>
       </c>
       <c r="G170" t="n">
         <v>2</v>
@@ -8381,10 +8366,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>326</v>
+      </c>
+      <c r="F171" t="s">
         <v>327</v>
-      </c>
-      <c r="F171" t="s">
-        <v>328</v>
       </c>
       <c r="G171" t="n">
         <v>5</v>
@@ -8410,10 +8395,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>332</v>
+      </c>
+      <c r="F172" t="s">
         <v>333</v>
-      </c>
-      <c r="F172" t="s">
-        <v>334</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -8439,10 +8424,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>334</v>
+      </c>
+      <c r="F173" t="s">
         <v>335</v>
-      </c>
-      <c r="F173" t="s">
-        <v>336</v>
       </c>
       <c r="G173" t="n">
         <v>11</v>
@@ -8468,10 +8453,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>336</v>
+      </c>
+      <c r="F174" t="s">
         <v>337</v>
-      </c>
-      <c r="F174" t="s">
-        <v>338</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -8497,10 +8482,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>338</v>
+      </c>
+      <c r="F175" t="s">
         <v>339</v>
-      </c>
-      <c r="F175" t="s">
-        <v>340</v>
       </c>
       <c r="G175" t="n">
         <v>3</v>
@@ -8526,10 +8511,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>340</v>
+      </c>
+      <c r="F176" t="s">
         <v>341</v>
-      </c>
-      <c r="F176" t="s">
-        <v>342</v>
       </c>
       <c r="G176" t="n">
         <v>2</v>
@@ -8555,10 +8540,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>342</v>
+      </c>
+      <c r="F177" t="s">
         <v>343</v>
-      </c>
-      <c r="F177" t="s">
-        <v>344</v>
       </c>
       <c r="G177" t="n">
         <v>3</v>
@@ -8584,10 +8569,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>344</v>
+      </c>
+      <c r="F178" t="s">
         <v>345</v>
-      </c>
-      <c r="F178" t="s">
-        <v>346</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -8613,10 +8598,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>346</v>
+      </c>
+      <c r="F179" t="s">
         <v>347</v>
-      </c>
-      <c r="F179" t="s">
-        <v>348</v>
       </c>
       <c r="G179" t="n">
         <v>2</v>
@@ -8642,10 +8627,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>348</v>
+      </c>
+      <c r="F180" t="s">
         <v>349</v>
-      </c>
-      <c r="F180" t="s">
-        <v>350</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -8671,10 +8656,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>350</v>
+      </c>
+      <c r="F181" t="s">
         <v>351</v>
-      </c>
-      <c r="F181" t="s">
-        <v>352</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -8700,10 +8685,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F182" t="s">
-        <v>354</v>
+        <v>92</v>
       </c>
       <c r="G182" t="n">
         <v>2</v>
@@ -8729,10 +8714,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F183" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -8758,10 +8743,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F184" t="s">
-        <v>358</v>
+        <v>78</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -8787,10 +8772,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F185" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G185" t="n">
         <v>2</v>
@@ -8816,10 +8801,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F186" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -8845,10 +8830,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F187" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -8874,10 +8859,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F188" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -8903,10 +8888,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F189" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -8932,10 +8917,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F190" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -8961,10 +8946,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F191" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G191" t="n">
         <v>116</v>
@@ -8990,10 +8975,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F192" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -9019,10 +9004,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F193" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G193" t="n">
         <v>9</v>
@@ -9048,10 +9033,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F194" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G194" t="n">
         <v>10</v>
@@ -9077,10 +9062,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F195" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G195" t="n">
         <v>8</v>
@@ -9106,10 +9091,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F196" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -9135,10 +9120,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F197" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G197" t="n">
         <v>2</v>
@@ -9164,10 +9149,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F198" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -9193,10 +9178,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F199" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -9222,10 +9207,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F200" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -9251,10 +9236,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F201" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -9280,10 +9265,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F202" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -9309,10 +9294,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F203" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G203" t="n">
         <v>4</v>
@@ -9338,10 +9323,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F204" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -9367,10 +9352,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F205" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -9396,10 +9381,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F206" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G206" t="n">
         <v>2</v>
@@ -9425,10 +9410,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F207" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -9454,10 +9439,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F208" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -9483,10 +9468,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F209" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -9512,10 +9497,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F210" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G210" t="n">
         <v>6</v>
@@ -9541,10 +9526,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F211" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -9570,10 +9555,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F212" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -9599,10 +9584,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F213" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -9628,10 +9613,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F214" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -9657,10 +9642,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F215" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -9686,10 +9671,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F216" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -9715,10 +9700,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F217" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G217" t="n">
         <v>2</v>
@@ -9744,10 +9729,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F218" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G218" t="n">
         <v>2</v>
@@ -9773,10 +9758,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F219" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -9802,10 +9787,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F220" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -9831,10 +9816,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F221" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -9860,10 +9845,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F222" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -9889,10 +9874,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F223" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -9918,10 +9903,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F224" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9947,10 +9932,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F225" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9976,10 +9961,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F226" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -10005,10 +9990,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F227" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -10034,10 +10019,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F228" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -10063,10 +10048,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F229" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -10092,10 +10077,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F230" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -10121,10 +10106,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F231" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -10150,10 +10135,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F232" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -10179,10 +10164,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F233" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -10208,10 +10193,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F234" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -10237,10 +10222,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F235" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -10266,10 +10251,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F236" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -10295,10 +10280,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F237" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -10324,10 +10309,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="F238" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -10353,10 +10338,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F239" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -10382,10 +10367,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F240" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -10411,10 +10396,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F241" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -10440,10 +10425,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F242" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -10469,10 +10454,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F243" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -10498,10 +10483,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F244" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -10527,10 +10512,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F245" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -10556,10 +10541,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F246" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -10585,10 +10570,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F247" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -10614,10 +10599,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F248" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -10643,10 +10628,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F249" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -10672,10 +10657,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F250" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -10701,10 +10686,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F251" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -10730,10 +10715,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F252" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -10759,10 +10744,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F253" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -10788,10 +10773,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="F254" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -10817,10 +10802,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F255" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -10846,10 +10831,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F256" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -10875,10 +10860,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F257" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -10904,10 +10889,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F258" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -10933,10 +10918,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F259" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G259" t="n">
         <v>30</v>
@@ -10962,10 +10947,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F260" t="s">
-        <v>510</v>
+        <v>108</v>
       </c>
       <c r="G260" t="n">
         <v>6</v>
@@ -11020,10 +11005,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F262" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -11049,10 +11034,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="F263" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -11078,10 +11063,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="F264" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -11107,10 +11092,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F265" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -11136,10 +11121,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F266" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -11165,10 +11150,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="F267" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -11194,10 +11179,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="F268" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -11223,10 +11208,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="F269" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -11252,10 +11237,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="F270" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -11281,10 +11266,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="F271" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -11310,10 +11295,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="F272" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -11339,10 +11324,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="F273" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -11368,10 +11353,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="F274" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -11397,10 +11382,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="F275" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -11426,10 +11411,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="F276" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -11455,10 +11440,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="F277" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -11484,10 +11469,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="F278" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="G278" t="n">
         <v>2</v>
@@ -11513,10 +11498,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="F279" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -11542,10 +11527,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="F280" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -11571,10 +11556,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="F281" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -11600,10 +11585,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="F282" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -11629,10 +11614,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="F283" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="G283" t="n">
         <v>9</v>
@@ -11658,10 +11643,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="F284" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -11687,10 +11672,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="F285" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -11716,10 +11701,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="F286" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -11745,10 +11730,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="F287" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="G287" t="n">
         <v>2</v>
@@ -11774,10 +11759,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="F288" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -11803,10 +11788,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F289" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -11832,10 +11817,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="F290" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -11861,10 +11846,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="F291" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -11890,10 +11875,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="F292" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11919,10 +11904,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="F293" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11948,10 +11933,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="F294" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11977,10 +11962,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="F295" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -12006,10 +11991,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="F296" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -12035,10 +12020,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="F297" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -12064,10 +12049,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="F298" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -12093,10 +12078,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="F299" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -12122,10 +12107,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="F300" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -12151,10 +12136,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="F301" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -12180,10 +12165,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="F302" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -12209,10 +12194,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="F303" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -12238,10 +12223,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="F304" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -12267,10 +12252,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="F305" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -12296,10 +12281,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="F306" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -12325,10 +12310,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="F307" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -12354,10 +12339,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="F308" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -12383,10 +12368,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="F309" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -12412,10 +12397,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="F310" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -12441,10 +12426,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="F311" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -12470,10 +12455,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="F312" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -12499,10 +12484,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="F313" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -12528,10 +12513,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="F314" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -12557,10 +12542,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="F315" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -12586,10 +12571,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="F316" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -12615,10 +12600,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="F317" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -12644,10 +12629,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="F318" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -12673,10 +12658,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="F319" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -12702,10 +12687,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="F320" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -12731,10 +12716,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="F321" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -12760,10 +12745,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="F322" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -12789,10 +12774,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="F323" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -12818,10 +12803,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="F324" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12847,10 +12832,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="F325" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -12876,10 +12861,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="F326" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -12905,10 +12890,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="F327" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="G327" t="n">
         <v>3</v>
@@ -12934,10 +12919,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="F328" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="G328" t="n">
         <v>6</v>
@@ -12963,10 +12948,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="F329" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12992,10 +12977,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="F330" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -13021,10 +13006,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="F331" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -13050,10 +13035,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="F332" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -13079,10 +13064,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="F333" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -13108,10 +13093,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="F334" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -13137,10 +13122,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="F335" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -13166,10 +13151,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="F336" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="G336" t="n">
         <v>2</v>
@@ -13195,10 +13180,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="F337" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -13224,10 +13209,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="F338" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -13253,10 +13238,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="F339" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -13282,10 +13267,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="F340" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -13311,10 +13296,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="F341" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -13340,10 +13325,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="F342" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -13369,10 +13354,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="F343" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -13398,10 +13383,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="F344" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -13427,10 +13412,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="F345" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -13456,10 +13441,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="F346" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -13485,10 +13470,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="F347" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -13514,10 +13499,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="F348" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -13543,10 +13528,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="F349" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -13572,10 +13557,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="F350" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -13601,10 +13586,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="F351" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -13630,10 +13615,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="F352" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -13659,10 +13644,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="F353" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -13688,10 +13673,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="F354" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -13717,10 +13702,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="F355" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -13746,10 +13731,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="F356" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G356" t="n">
         <v>3</v>
@@ -13775,10 +13760,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F357" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="G357" t="n">
         <v>10</v>
@@ -13804,10 +13789,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="F358" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13833,10 +13818,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="F359" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13862,10 +13847,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="F360" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13891,10 +13876,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="F361" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13920,10 +13905,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="F362" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13949,10 +13934,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="F363" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13978,10 +13963,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="F364" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -14007,10 +13992,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="F365" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -14036,10 +14021,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="F366" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -14065,10 +14050,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="F367" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -14094,10 +14079,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="F368" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="G368" t="n">
         <v>3</v>
@@ -14123,10 +14108,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="F369" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="G369" t="n">
         <v>15</v>
@@ -14152,10 +14137,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="F370" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -14181,10 +14166,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="F371" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -14239,10 +14224,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="F373" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -14268,10 +14253,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="F374" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -14297,10 +14282,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="F375" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -14326,10 +14311,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="F376" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -14355,10 +14340,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="F377" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="G377" t="n">
         <v>2</v>
@@ -14384,10 +14369,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="F378" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -14413,10 +14398,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="F379" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -14442,10 +14427,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="F380" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="G380" t="n">
         <v>2</v>
@@ -14471,10 +14456,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="F381" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="G381" t="n">
         <v>5</v>
@@ -14500,10 +14485,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="F382" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -14529,10 +14514,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="F383" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -14558,10 +14543,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="F384" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -14587,10 +14572,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="F385" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -14616,10 +14601,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="F386" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="G386" t="n">
         <v>2</v>
@@ -14645,10 +14630,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="F387" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -14674,10 +14659,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="F388" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -14703,10 +14688,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="F389" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14732,10 +14717,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="F390" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -14761,10 +14746,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="F391" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="G391" t="n">
         <v>2</v>
@@ -14790,10 +14775,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="F392" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -14819,10 +14804,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="F393" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="G393" t="n">
         <v>2</v>
@@ -14848,10 +14833,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="F394" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="G394" t="n">
         <v>45</v>
@@ -14877,10 +14862,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="F395" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -14906,10 +14891,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="F396" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -14935,10 +14920,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="F397" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -14964,10 +14949,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="F398" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -14993,10 +14978,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="F399" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -15022,10 +15007,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="F400" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -15051,10 +15036,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="F401" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -15080,10 +15065,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="F402" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -15109,10 +15094,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="F403" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -15138,10 +15123,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="F404" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -15167,10 +15152,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="F405" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -15196,10 +15181,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="F406" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -15225,10 +15210,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F407" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="G407" t="n">
         <v>2</v>
@@ -15254,10 +15239,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="F408" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="G408" t="n">
         <v>2</v>
@@ -15283,10 +15268,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="F409" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -15312,10 +15297,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="F410" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -15341,10 +15326,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="F411" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -15370,10 +15355,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="F412" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -15399,10 +15384,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="F413" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -15428,10 +15413,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="F414" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -15457,10 +15442,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="F415" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -15486,10 +15471,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="F416" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -15515,10 +15500,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="F417" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -15544,10 +15529,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="F418" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -15573,10 +15558,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="F419" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="G419" t="n">
         <v>2</v>
@@ -15602,10 +15587,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="F420" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -15631,10 +15616,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="F421" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -15660,10 +15645,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="F422" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="G422" t="n">
         <v>3</v>
@@ -15689,10 +15674,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="F423" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -15718,10 +15703,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="F424" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -15747,10 +15732,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="F425" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -15776,10 +15761,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="F426" t="s">
-        <v>838</v>
+        <v>16</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -15805,10 +15790,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="F427" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -15834,10 +15819,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F428" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="G428" t="n">
         <v>2</v>
@@ -15863,10 +15848,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="F429" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="G429" t="n">
         <v>13</v>
@@ -15892,10 +15877,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
+        <v>290</v>
+      </c>
+      <c r="F430" t="s">
         <v>291</v>
-      </c>
-      <c r="F430" t="s">
-        <v>292</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -15921,10 +15906,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="F431" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="G431" t="n">
         <v>2</v>
@@ -15950,10 +15935,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="F432" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="G432" t="n">
         <v>2</v>
@@ -15979,10 +15964,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="F433" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="G433" t="n">
         <v>2</v>
@@ -16008,10 +15993,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="F434" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="G434" t="n">
         <v>2</v>
@@ -16037,10 +16022,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="F435" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="G435" t="n">
         <v>2</v>
@@ -16066,10 +16051,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="F436" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="G436" t="n">
         <v>2</v>
@@ -16095,10 +16080,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="F437" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -16124,10 +16109,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="F438" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="G438" t="n">
         <v>2</v>
@@ -16153,10 +16138,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="F439" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="G439" t="n">
         <v>2</v>
@@ -16182,10 +16167,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="F440" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="G440" t="n">
         <v>2</v>
@@ -16211,10 +16196,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="F441" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -16240,10 +16225,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="F442" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -16269,10 +16254,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="F443" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="G443" t="n">
         <v>1</v>
@@ -16298,10 +16283,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="F444" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -16327,10 +16312,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="F445" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -16356,10 +16341,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="F446" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -16385,10 +16370,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="F447" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="G447" t="n">
         <v>2</v>
@@ -16414,10 +16399,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="F448" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -16443,10 +16428,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="F449" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="G449" t="n">
         <v>6</v>
@@ -16472,10 +16457,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="F450" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="G450" t="n">
         <v>1</v>
@@ -16501,10 +16486,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="F451" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -16530,10 +16515,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="F452" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="G452" t="n">
         <v>1</v>
@@ -16559,10 +16544,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="F453" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -16588,10 +16573,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="F454" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -16617,10 +16602,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="F455" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -16646,10 +16631,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="F456" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -16675,10 +16660,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="F457" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="G457" t="n">
         <v>1</v>
@@ -16704,10 +16689,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="F458" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="G458" t="n">
         <v>2</v>
@@ -16733,10 +16718,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="F459" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="G459" t="n">
         <v>1</v>
@@ -16762,10 +16747,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="F460" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="G460" t="n">
         <v>1</v>
@@ -16791,10 +16776,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="F461" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="G461" t="n">
         <v>1</v>
@@ -16820,10 +16805,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="F462" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -16849,10 +16834,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="F463" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -16878,10 +16863,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="F464" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="G464" t="n">
         <v>1</v>
@@ -16907,10 +16892,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="F465" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
@@ -16936,10 +16921,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="F466" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
@@ -16965,10 +16950,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="F467" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="G467" t="n">
         <v>1</v>
@@ -16994,10 +16979,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="F468" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="G468" t="n">
         <v>1</v>
@@ -17023,10 +17008,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="F469" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="G469" t="n">
         <v>2</v>
@@ -17052,10 +17037,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="F470" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="G470" t="n">
         <v>1</v>
@@ -17081,10 +17066,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="F471" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="G471" t="n">
         <v>1</v>
@@ -17110,10 +17095,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="F472" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="G472" t="n">
         <v>1</v>
@@ -17139,10 +17124,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="F473" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="G473" t="n">
         <v>1</v>
@@ -17168,10 +17153,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="F474" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="G474" t="n">
         <v>15</v>
@@ -17197,10 +17182,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="F475" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="G475" t="n">
         <v>1</v>
@@ -17226,10 +17211,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="F476" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="G476" t="n">
         <v>1</v>
@@ -17255,10 +17240,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="F477" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="G477" t="n">
         <v>1</v>
@@ -17284,10 +17269,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="F478" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="G478" t="n">
         <v>1</v>
@@ -17313,10 +17298,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="F479" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="G479" t="n">
         <v>1</v>
@@ -17342,10 +17327,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="F480" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="G480" t="n">
         <v>12</v>
@@ -17371,10 +17356,10 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="F481" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="G481" t="n">
         <v>3</v>
@@ -17400,10 +17385,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="F482" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="G482" t="n">
         <v>1</v>
@@ -17429,10 +17414,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="F483" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="G483" t="n">
         <v>1</v>
@@ -17458,10 +17443,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="F484" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
       <c r="G484" t="n">
         <v>1</v>
@@ -17487,10 +17472,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="F485" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="G485" t="n">
         <v>1</v>
@@ -17516,10 +17501,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="F486" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="G486" t="n">
         <v>1</v>
@@ -17545,10 +17530,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="F487" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="G487" t="n">
         <v>1</v>
@@ -17574,10 +17559,10 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="F488" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="G488" t="n">
         <v>1</v>
@@ -17603,10 +17588,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="F489" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="G489" t="n">
         <v>1</v>
@@ -17632,10 +17617,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="F490" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="G490" t="n">
         <v>1</v>
@@ -17661,10 +17646,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="F491" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="G491" t="n">
         <v>1</v>
@@ -17690,10 +17675,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>967</v>
+        <v>962</v>
       </c>
       <c r="F492" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="G492" t="n">
         <v>1</v>
@@ -17719,10 +17704,10 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="F493" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="G493" t="n">
         <v>1</v>
@@ -17748,10 +17733,10 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="F494" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
       <c r="G494" t="n">
         <v>1</v>
@@ -17777,10 +17762,10 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="F495" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="G495" t="n">
         <v>1</v>
@@ -17806,10 +17791,10 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="F496" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="G496" t="n">
         <v>1</v>
@@ -17835,10 +17820,10 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="F497" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="G497" t="n">
         <v>1</v>
@@ -17864,10 +17849,10 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="F498" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="G498" t="n">
         <v>1</v>
@@ -17893,10 +17878,10 @@
         <v>498</v>
       </c>
       <c r="E499" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="F499" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="G499" t="n">
         <v>15</v>
@@ -17922,10 +17907,10 @@
         <v>499</v>
       </c>
       <c r="E500" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="F500" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="G500" t="n">
         <v>12</v>
@@ -17951,10 +17936,10 @@
         <v>500</v>
       </c>
       <c r="E501" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="F501" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="G501" t="n">
         <v>1</v>
@@ -17980,10 +17965,10 @@
         <v>501</v>
       </c>
       <c r="E502" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="F502" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="G502" t="n">
         <v>1</v>
@@ -18009,10 +17994,10 @@
         <v>502</v>
       </c>
       <c r="E503" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="F503" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="G503" t="n">
         <v>1</v>
@@ -18038,10 +18023,10 @@
         <v>503</v>
       </c>
       <c r="E504" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="F504" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="G504" t="n">
         <v>5</v>
@@ -18067,10 +18052,10 @@
         <v>504</v>
       </c>
       <c r="E505" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="F505" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="G505" t="n">
         <v>1</v>
@@ -18096,10 +18081,10 @@
         <v>505</v>
       </c>
       <c r="E506" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="F506" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="G506" t="n">
         <v>1</v>
@@ -18125,10 +18110,10 @@
         <v>506</v>
       </c>
       <c r="E507" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="F507" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="G507" t="n">
         <v>1</v>
@@ -18154,10 +18139,10 @@
         <v>507</v>
       </c>
       <c r="E508" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="F508" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="G508" t="n">
         <v>1</v>
@@ -18183,10 +18168,10 @@
         <v>508</v>
       </c>
       <c r="E509" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="F509" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="G509" t="n">
         <v>2</v>
@@ -18212,10 +18197,10 @@
         <v>509</v>
       </c>
       <c r="E510" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="F510" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="G510" t="n">
         <v>1</v>
@@ -18241,10 +18226,10 @@
         <v>510</v>
       </c>
       <c r="E511" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="F511" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="G511" t="n">
         <v>1</v>
@@ -18270,10 +18255,10 @@
         <v>511</v>
       </c>
       <c r="E512" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="F512" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="G512" t="n">
         <v>1</v>
@@ -18299,10 +18284,10 @@
         <v>512</v>
       </c>
       <c r="E513" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="F513" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="G513" t="n">
         <v>1</v>
@@ -18328,10 +18313,10 @@
         <v>513</v>
       </c>
       <c r="E514" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="F514" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="G514" t="n">
         <v>3</v>
@@ -18357,10 +18342,10 @@
         <v>514</v>
       </c>
       <c r="E515" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="F515" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="G515" t="n">
         <v>1</v>
@@ -18386,10 +18371,10 @@
         <v>515</v>
       </c>
       <c r="E516" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="F516" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="G516" t="n">
         <v>1</v>
@@ -18415,10 +18400,10 @@
         <v>516</v>
       </c>
       <c r="E517" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="F517" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="G517" t="n">
         <v>1</v>
@@ -18444,10 +18429,10 @@
         <v>517</v>
       </c>
       <c r="E518" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="F518" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="G518" t="n">
         <v>1</v>
@@ -18473,10 +18458,10 @@
         <v>518</v>
       </c>
       <c r="E519" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="F519" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="G519" t="n">
         <v>1</v>

--- a/xlsx/婚姻_intext.xlsx
+++ b/xlsx/婚姻_intext.xlsx
@@ -29,7 +29,7 @@
     <t>中式婚禮</t>
   </si>
   <si>
-    <t>政策_政策_社会政策_婚姻</t>
+    <t>体育运动_体育运动_文化_婚姻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%9A%9B%E9%97%9C%E4%BF%82</t>
